--- a/data/outputs/OR_altmetric/23.xlsx
+++ b/data/outputs/OR_altmetric/23.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE57"/>
+  <dimension ref="A1:CF57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1260,6 +1268,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1507,6 +1518,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2008,6 +2025,9 @@
       </c>
       <c r="CE6" t="n">
         <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -2256,6 +2276,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2491,6 +2514,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2718,6 +2744,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2943,6 +2972,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3184,6 +3216,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3439,6 +3474,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3682,6 +3720,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3923,6 +3964,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4170,6 +4214,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4409,6 +4456,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4667,6 +4717,9 @@
       </c>
       <c r="CE17" t="n">
         <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -4901,6 +4954,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5130,6 +5186,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5367,6 +5426,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5606,6 +5668,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5857,6 +5922,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6116,6 +6184,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6369,6 +6440,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6618,6 +6692,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6865,6 +6942,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7105,6 +7185,9 @@
       </c>
       <c r="CE27" t="n">
         <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="28">
@@ -7331,6 +7414,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7565,6 +7651,9 @@
       </c>
       <c r="CE29" t="n">
         <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -7795,6 +7884,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8034,6 +8126,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8289,6 +8384,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8543,6 +8641,9 @@
       </c>
       <c r="CE33" t="n">
         <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="34">
@@ -8785,6 +8886,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9034,6 +9138,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9276,6 +9383,9 @@
       </c>
       <c r="CE36" t="n">
         <v>0</v>
+      </c>
+      <c r="CF36" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="37">
@@ -9510,6 +9620,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9735,6 +9848,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9978,6 +10094,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10219,6 +10338,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10460,6 +10582,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10707,6 +10832,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10947,6 +11075,9 @@
       </c>
       <c r="CE43" t="n">
         <v>0</v>
+      </c>
+      <c r="CF43" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -11173,6 +11304,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11398,6 +11532,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11623,6 +11760,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11870,6 +12010,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12115,6 +12258,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12370,6 +12516,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12624,6 +12773,9 @@
       </c>
       <c r="CE50" t="n">
         <v>0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -12862,6 +13014,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13112,6 +13267,9 @@
       </c>
       <c r="CE52" t="n">
         <v>0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -13350,6 +13508,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13585,6 +13746,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13824,6 +13988,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14051,6 +14218,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14278,6 +14448,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
